--- a/PROJECT/BC/BC_EXCEL_SHEETS/Offer.xlsx
+++ b/PROJECT/BC/BC_EXCEL_SHEETS/Offer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7896"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Variable Costs via Hourly Wages</t>
   </si>
@@ -47,15 +47,9 @@
     <t>Test Manager</t>
   </si>
   <si>
-    <t>System Architect</t>
-  </si>
-  <si>
     <t>Technical Documentation</t>
   </si>
   <si>
-    <t>Software Developer</t>
-  </si>
-  <si>
     <t>Estimtated Total Variable Costs</t>
   </si>
   <si>
@@ -108,6 +102,9 @@
   </si>
   <si>
     <t>JetBrains Webstorm license</t>
+  </si>
+  <si>
+    <t>System Architect &amp; Software Developer</t>
   </si>
 </sst>
 </file>
@@ -197,8 +194,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A4:C11" totalsRowShown="0">
-  <autoFilter ref="A4:C11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A4:C10" totalsRowShown="0">
+  <autoFilter ref="A4:C10"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Role"/>
     <tableColumn id="2" name="Hourly Wage"/>
@@ -512,15 +509,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N11"/>
+  <dimension ref="A2:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="5" max="5" width="25.88671875" customWidth="1"/>
@@ -536,13 +533,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -556,28 +553,28 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
       <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
         <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -588,33 +585,35 @@
         <v>110</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C10" si="0">B5*150</f>
+        <f t="shared" ref="C5:C9" si="0">B5*150</f>
         <v>16500</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2">
         <v>249</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" ref="H5:H7" si="1">F5*G5</f>
-        <v>1494</v>
+        <v>1245</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2">
-        <v>83250</v>
+        <f>C10</f>
+        <v>73500</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N5" s="2">
-        <v>85644</v>
+        <f>K7</f>
+        <v>75495</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -629,30 +628,31 @@
         <v>15750</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2">
         <v>150</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K6" s="2">
-        <v>2394</v>
+        <f>H8</f>
+        <v>1995</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N6" s="2">
         <f>N5*20%</f>
-        <v>17128.8</v>
+        <v>15099</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -667,7 +667,7 @@
         <v>13500</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -680,43 +680,43 @@
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K7" s="4">
         <f>K5+K6</f>
-        <v>85644</v>
+        <v>75495</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N7" s="4">
         <f>N5+N6</f>
-        <v>102772.8</v>
+        <v>90594</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H8" s="4">
         <f>H5+H6+H7</f>
-        <v>2394</v>
+        <v>1995</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>85</v>
@@ -728,24 +728,12 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>75</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>11250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4">
-        <f>C5+C6+C7+C8+C9+C10</f>
-        <v>83250</v>
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <f>C5+C6+C7+C8+C9</f>
+        <v>73500</v>
       </c>
     </row>
   </sheetData>
